--- a/stock_pattern/data/settrade2.xlsx
+++ b/stock_pattern/data/settrade2.xlsx
@@ -680,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
